--- a/datafiles-2017/xlsfiles/armslength2012to2016_spa.xlsx
+++ b/datafiles-2017/xlsfiles/armslength2012to2016_spa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="17055" windowHeight="10830"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20700" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Armslength" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <definedName name="Armslength">Armslength!$A$1:$CN$37</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -410,9 +410,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,7 +470,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -773,12 +775,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1106,46 +1108,46 @@
         <v>10</v>
       </c>
       <c r="V2">
-        <v>27000</v>
+        <v>28215</v>
       </c>
       <c r="W2">
-        <v>27600</v>
+        <v>28400</v>
       </c>
       <c r="X2">
-        <v>30000</v>
+        <v>30390</v>
       </c>
       <c r="Y2">
-        <v>32400</v>
+        <v>32854</v>
       </c>
       <c r="Z2">
         <v>38000</v>
       </c>
       <c r="AA2">
-        <v>27000</v>
+        <v>28215</v>
       </c>
       <c r="AB2">
-        <v>27600</v>
+        <v>28400</v>
       </c>
       <c r="AC2">
-        <v>29600</v>
+        <v>29985</v>
       </c>
       <c r="AD2">
-        <v>33000</v>
+        <v>33462</v>
       </c>
       <c r="AE2">
         <v>38000</v>
       </c>
       <c r="AF2">
-        <v>29500</v>
+        <v>30828</v>
       </c>
       <c r="AG2">
-        <v>24000</v>
+        <v>24696</v>
       </c>
       <c r="AH2">
-        <v>40500</v>
+        <v>41027</v>
       </c>
       <c r="AI2">
-        <v>15000</v>
+        <v>15210</v>
       </c>
       <c r="AJ2">
         <v>49500</v>
@@ -1193,13 +1195,13 @@
         <v>-25.69</v>
       </c>
       <c r="BE2">
-        <v>40.74</v>
+        <v>34.68</v>
       </c>
       <c r="BF2">
-        <v>40.74</v>
+        <v>34.68</v>
       </c>
       <c r="BG2">
-        <v>67.8</v>
+        <v>60.57</v>
       </c>
       <c r="BI2">
         <v>66</v>
@@ -1217,16 +1219,16 @@
         <v>143</v>
       </c>
       <c r="BN2">
-        <v>38650</v>
+        <v>40389</v>
       </c>
       <c r="BO2">
-        <v>41000</v>
+        <v>42189</v>
       </c>
       <c r="BP2">
-        <v>36900</v>
+        <v>37380</v>
       </c>
       <c r="BQ2">
-        <v>40000</v>
+        <v>40560</v>
       </c>
       <c r="BR2">
         <v>43000</v>
@@ -1235,7 +1237,7 @@
         <v>30.68</v>
       </c>
       <c r="BT2">
-        <v>11.25</v>
+        <v>6.46</v>
       </c>
       <c r="BU2">
         <v>93.96</v>
@@ -1283,7 +1285,7 @@
         <v>57.89</v>
       </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1333,46 +1335,46 @@
         <v>129</v>
       </c>
       <c r="V3">
-        <v>12500</v>
+        <v>13063</v>
       </c>
       <c r="W3">
-        <v>12500</v>
+        <v>12863</v>
       </c>
       <c r="X3">
-        <v>15000</v>
+        <v>15195</v>
       </c>
       <c r="Y3">
-        <v>14650</v>
+        <v>14855</v>
       </c>
       <c r="Z3">
         <v>13000</v>
       </c>
       <c r="AA3">
-        <v>12000</v>
+        <v>12540</v>
       </c>
       <c r="AB3">
-        <v>13350</v>
+        <v>13737</v>
       </c>
       <c r="AC3">
-        <v>15750</v>
+        <v>15955</v>
       </c>
       <c r="AD3">
-        <v>14137</v>
+        <v>14335</v>
       </c>
       <c r="AE3">
         <v>14000</v>
       </c>
       <c r="AF3">
-        <v>13350</v>
+        <v>13951</v>
       </c>
       <c r="AG3">
-        <v>10908.5</v>
+        <v>11225</v>
       </c>
       <c r="AH3">
-        <v>12764</v>
+        <v>12930</v>
       </c>
       <c r="AI3">
-        <v>15000</v>
+        <v>15210</v>
       </c>
       <c r="AJ3">
         <v>11500</v>
@@ -1420,13 +1422,13 @@
         <v>1.22</v>
       </c>
       <c r="BE3">
-        <v>4</v>
+        <v>-0.48</v>
       </c>
       <c r="BF3">
-        <v>16.670000000000002</v>
+        <v>11.64</v>
       </c>
       <c r="BG3">
-        <v>-13.86</v>
+        <v>-17.57</v>
       </c>
       <c r="BI3">
         <v>143</v>
@@ -1444,16 +1446,16 @@
         <v>196</v>
       </c>
       <c r="BN3">
-        <v>15000</v>
+        <v>15675</v>
       </c>
       <c r="BO3">
-        <v>17300</v>
+        <v>17802</v>
       </c>
       <c r="BP3">
-        <v>17000</v>
+        <v>17221</v>
       </c>
       <c r="BQ3">
-        <v>15500</v>
+        <v>15717</v>
       </c>
       <c r="BR3">
         <v>17450</v>
@@ -1462,7 +1464,7 @@
         <v>7.39</v>
       </c>
       <c r="BT3">
-        <v>16.329999999999998</v>
+        <v>11.32</v>
       </c>
       <c r="BU3">
         <v>71.430000000000007</v>
@@ -1510,7 +1512,7 @@
         <v>47.69</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -1560,46 +1562,46 @@
         <v>42</v>
       </c>
       <c r="V4">
-        <v>15000</v>
+        <v>15675</v>
       </c>
       <c r="W4">
-        <v>16000</v>
+        <v>16464</v>
       </c>
       <c r="X4">
-        <v>22500</v>
+        <v>22793</v>
       </c>
       <c r="Y4">
-        <v>25125.5</v>
+        <v>25477</v>
       </c>
       <c r="Z4">
         <v>24700</v>
       </c>
       <c r="AA4">
-        <v>14100</v>
+        <v>14735</v>
       </c>
       <c r="AB4">
-        <v>17750</v>
+        <v>18265</v>
       </c>
       <c r="AC4">
-        <v>21600</v>
+        <v>21881</v>
       </c>
       <c r="AD4">
-        <v>25900</v>
+        <v>26263</v>
       </c>
       <c r="AE4">
         <v>22000</v>
       </c>
       <c r="AF4">
-        <v>19950</v>
+        <v>20848</v>
       </c>
       <c r="AG4">
-        <v>15000</v>
+        <v>15435</v>
       </c>
       <c r="AH4">
-        <v>31443.5</v>
+        <v>31852</v>
       </c>
       <c r="AI4">
-        <v>22200</v>
+        <v>22511</v>
       </c>
       <c r="AJ4">
         <v>34000</v>
@@ -1647,13 +1649,13 @@
         <v>-42.38</v>
       </c>
       <c r="BE4">
-        <v>64.67</v>
+        <v>57.58</v>
       </c>
       <c r="BF4">
-        <v>56.03</v>
+        <v>49.3</v>
       </c>
       <c r="BG4">
-        <v>70.430000000000007</v>
+        <v>63.09</v>
       </c>
       <c r="BI4">
         <v>34</v>
@@ -1671,16 +1673,16 @@
         <v>56</v>
       </c>
       <c r="BN4">
-        <v>18000</v>
+        <v>18810</v>
       </c>
       <c r="BO4">
-        <v>22500</v>
+        <v>23153</v>
       </c>
       <c r="BP4">
-        <v>26750</v>
+        <v>27098</v>
       </c>
       <c r="BQ4">
-        <v>35000</v>
+        <v>35490</v>
       </c>
       <c r="BR4">
         <v>27000</v>
@@ -1689,7 +1691,7 @@
         <v>-9.2200000000000006</v>
       </c>
       <c r="BT4">
-        <v>50</v>
+        <v>43.54</v>
       </c>
       <c r="BU4">
         <v>80</v>
@@ -1737,7 +1739,7 @@
         <v>44.09</v>
       </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1802,61 +1804,61 @@
         <v>40</v>
       </c>
       <c r="V5">
-        <v>25101</v>
+        <v>26231</v>
       </c>
       <c r="W5">
-        <v>21900</v>
+        <v>22535</v>
       </c>
       <c r="X5">
-        <v>25500</v>
+        <v>25832</v>
       </c>
       <c r="Y5">
-        <v>35000</v>
+        <v>35490</v>
       </c>
       <c r="Z5">
         <v>29550</v>
       </c>
       <c r="AA5">
-        <v>17350</v>
+        <v>18131</v>
       </c>
       <c r="AB5">
-        <v>19750</v>
+        <v>20323</v>
       </c>
       <c r="AC5">
-        <v>28448.5</v>
+        <v>28818</v>
       </c>
       <c r="AD5">
-        <v>36450</v>
+        <v>36960</v>
       </c>
       <c r="AE5">
         <v>27000</v>
       </c>
       <c r="AF5">
-        <v>14900</v>
+        <v>15571</v>
       </c>
       <c r="AG5">
-        <v>9900</v>
+        <v>10187</v>
       </c>
       <c r="AH5">
-        <v>13450</v>
+        <v>13625</v>
       </c>
       <c r="AI5">
-        <v>20000</v>
+        <v>20280</v>
       </c>
       <c r="AJ5">
         <v>10000</v>
       </c>
       <c r="AK5">
-        <v>61250</v>
+        <v>64006</v>
       </c>
       <c r="AL5">
-        <v>65000</v>
+        <v>66885</v>
       </c>
       <c r="AM5">
-        <v>65000</v>
+        <v>65845</v>
       </c>
       <c r="AN5">
-        <v>79000</v>
+        <v>80106</v>
       </c>
       <c r="AO5">
         <v>72000</v>
@@ -1907,16 +1909,16 @@
         <v>-6.13</v>
       </c>
       <c r="BE5">
-        <v>17.72</v>
+        <v>12.65</v>
       </c>
       <c r="BF5">
-        <v>55.62</v>
+        <v>48.92</v>
       </c>
       <c r="BG5">
-        <v>-32.89</v>
+        <v>-35.78</v>
       </c>
       <c r="BH5">
-        <v>17.55</v>
+        <v>12.49</v>
       </c>
       <c r="BI5">
         <v>55</v>
@@ -1934,16 +1936,16 @@
         <v>80</v>
       </c>
       <c r="BN5">
-        <v>46000</v>
+        <v>48070</v>
       </c>
       <c r="BO5">
-        <v>50250</v>
+        <v>51707</v>
       </c>
       <c r="BP5">
-        <v>35500</v>
+        <v>35962</v>
       </c>
       <c r="BQ5">
-        <v>50000</v>
+        <v>50700</v>
       </c>
       <c r="BR5">
         <v>50500</v>
@@ -1952,7 +1954,7 @@
         <v>-4.4400000000000004</v>
       </c>
       <c r="BT5">
-        <v>9.7799999999999994</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="BU5">
         <v>40.71</v>
@@ -2015,7 +2017,7 @@
         <v>46.51</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>96</v>
       </c>
@@ -2065,46 +2067,46 @@
         <v>36</v>
       </c>
       <c r="V6">
-        <v>10081.5</v>
+        <v>10535</v>
       </c>
       <c r="W6">
-        <v>15000</v>
+        <v>15435</v>
       </c>
       <c r="X6">
-        <v>10000</v>
+        <v>10130</v>
       </c>
       <c r="Y6">
-        <v>14875</v>
+        <v>15083</v>
       </c>
       <c r="Z6">
         <v>14850</v>
       </c>
       <c r="AA6">
-        <v>18000</v>
+        <v>18810</v>
       </c>
       <c r="AB6">
-        <v>22650</v>
+        <v>23307</v>
       </c>
       <c r="AC6">
-        <v>19750</v>
+        <v>20007</v>
       </c>
       <c r="AD6">
-        <v>14750</v>
+        <v>14957</v>
       </c>
       <c r="AE6">
         <v>19250</v>
       </c>
       <c r="AF6">
-        <v>8400</v>
+        <v>8778</v>
       </c>
       <c r="AG6">
-        <v>6347</v>
+        <v>6531</v>
       </c>
       <c r="AH6">
-        <v>5500</v>
+        <v>5572</v>
       </c>
       <c r="AI6">
-        <v>16700</v>
+        <v>16934</v>
       </c>
       <c r="AJ6">
         <v>10000</v>
@@ -2152,13 +2154,13 @@
         <v>-13.34</v>
       </c>
       <c r="BE6">
-        <v>47.3</v>
+        <v>40.96</v>
       </c>
       <c r="BF6">
-        <v>6.94</v>
+        <v>2.34</v>
       </c>
       <c r="BG6">
-        <v>19.05</v>
+        <v>13.92</v>
       </c>
       <c r="BI6">
         <v>14</v>
@@ -2176,16 +2178,16 @@
         <v>26</v>
       </c>
       <c r="BN6">
-        <v>25000</v>
+        <v>26125</v>
       </c>
       <c r="BO6">
-        <v>25100</v>
+        <v>25828</v>
       </c>
       <c r="BP6">
-        <v>16000</v>
+        <v>16208</v>
       </c>
       <c r="BQ6">
-        <v>21700</v>
+        <v>22004</v>
       </c>
       <c r="BR6">
         <v>23300</v>
@@ -2194,7 +2196,7 @@
         <v>11.42</v>
       </c>
       <c r="BT6">
-        <v>-6.8</v>
+        <v>-10.81</v>
       </c>
       <c r="BU6">
         <v>41.67</v>
@@ -2242,7 +2244,7 @@
         <v>43.33</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -2301,58 +2303,58 @@
         <v>4</v>
       </c>
       <c r="V7">
-        <v>44900</v>
+        <v>46921</v>
       </c>
       <c r="W7">
-        <v>36000</v>
+        <v>37044</v>
       </c>
       <c r="X7">
-        <v>43250</v>
+        <v>43812</v>
       </c>
       <c r="Y7">
-        <v>35000</v>
+        <v>35490</v>
       </c>
       <c r="Z7">
         <v>50000</v>
       </c>
       <c r="AA7">
-        <v>51100</v>
+        <v>53400</v>
       </c>
       <c r="AB7">
-        <v>40000</v>
+        <v>41160</v>
       </c>
       <c r="AC7">
-        <v>112400</v>
+        <v>113861</v>
       </c>
       <c r="AD7">
-        <v>79700</v>
+        <v>80816</v>
       </c>
       <c r="AE7">
         <v>60200</v>
       </c>
       <c r="AF7">
-        <v>7800</v>
+        <v>8151</v>
       </c>
       <c r="AG7">
-        <v>18150</v>
+        <v>18676</v>
       </c>
       <c r="AH7">
-        <v>19125</v>
+        <v>19374</v>
       </c>
       <c r="AI7">
-        <v>8050</v>
+        <v>8163</v>
       </c>
       <c r="AJ7">
         <v>20298</v>
       </c>
       <c r="AL7">
-        <v>1820</v>
+        <v>1873</v>
       </c>
       <c r="AM7">
-        <v>5881</v>
+        <v>5957</v>
       </c>
       <c r="AN7">
-        <v>4350</v>
+        <v>4411</v>
       </c>
       <c r="AP7">
         <v>2</v>
@@ -2397,13 +2399,13 @@
         <v>-45.77</v>
       </c>
       <c r="BE7">
-        <v>11.36</v>
+        <v>6.56</v>
       </c>
       <c r="BF7">
-        <v>17.809999999999999</v>
+        <v>12.73</v>
       </c>
       <c r="BG7">
-        <v>160.22999999999999</v>
+        <v>149.02000000000001</v>
       </c>
       <c r="BI7">
         <v>4</v>
@@ -2421,16 +2423,16 @@
         <v>16</v>
       </c>
       <c r="BN7">
-        <v>57650</v>
+        <v>60244</v>
       </c>
       <c r="BO7">
-        <v>28000</v>
+        <v>28812</v>
       </c>
       <c r="BP7">
-        <v>14600</v>
+        <v>14790</v>
       </c>
       <c r="BQ7">
-        <v>23875</v>
+        <v>24209</v>
       </c>
       <c r="BR7">
         <v>27450</v>
@@ -2439,7 +2441,7 @@
         <v>117.15</v>
       </c>
       <c r="BT7">
-        <v>-52.39</v>
+        <v>-54.44</v>
       </c>
       <c r="BU7">
         <v>94.74</v>
@@ -2496,7 +2498,7 @@
         <v>45.71</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -2546,46 +2548,46 @@
         <v>47</v>
       </c>
       <c r="V8">
-        <v>14100</v>
+        <v>14735</v>
       </c>
       <c r="W8">
-        <v>16125</v>
+        <v>16593</v>
       </c>
       <c r="X8">
-        <v>18875</v>
+        <v>19120</v>
       </c>
       <c r="Y8">
-        <v>19971</v>
+        <v>20251</v>
       </c>
       <c r="Z8">
         <v>21070</v>
       </c>
       <c r="AA8">
-        <v>14100</v>
+        <v>14735</v>
       </c>
       <c r="AB8">
-        <v>16000</v>
+        <v>16464</v>
       </c>
       <c r="AC8">
-        <v>19825</v>
+        <v>20083</v>
       </c>
       <c r="AD8">
-        <v>20000</v>
+        <v>20280</v>
       </c>
       <c r="AE8">
         <v>21285</v>
       </c>
       <c r="AF8">
-        <v>14250</v>
+        <v>14891</v>
       </c>
       <c r="AG8">
-        <v>17842</v>
+        <v>18359</v>
       </c>
       <c r="AH8">
-        <v>17250</v>
+        <v>17474</v>
       </c>
       <c r="AI8">
-        <v>16500</v>
+        <v>16731</v>
       </c>
       <c r="AJ8">
         <v>20000</v>
@@ -2633,13 +2635,13 @@
         <v>-41.33</v>
       </c>
       <c r="BE8">
-        <v>49.43</v>
+        <v>42.99</v>
       </c>
       <c r="BF8">
-        <v>50.96</v>
+        <v>44.45</v>
       </c>
       <c r="BG8">
-        <v>40.35</v>
+        <v>34.31</v>
       </c>
       <c r="BI8">
         <v>35</v>
@@ -2657,16 +2659,16 @@
         <v>52</v>
       </c>
       <c r="BN8">
-        <v>15573</v>
+        <v>16274</v>
       </c>
       <c r="BO8">
-        <v>21375</v>
+        <v>21995</v>
       </c>
       <c r="BP8">
-        <v>24400</v>
+        <v>24717</v>
       </c>
       <c r="BQ8">
-        <v>20000</v>
+        <v>20280</v>
       </c>
       <c r="BR8">
         <v>28000</v>
@@ -2675,7 +2677,7 @@
         <v>-1.44</v>
       </c>
       <c r="BT8">
-        <v>79.8</v>
+        <v>72.05</v>
       </c>
       <c r="BU8">
         <v>64.180000000000007</v>
@@ -2723,7 +2725,7 @@
         <v>51.49</v>
       </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -2773,46 +2775,46 @@
         <v>83</v>
       </c>
       <c r="V9">
-        <v>10000</v>
+        <v>10450</v>
       </c>
       <c r="W9">
-        <v>14900</v>
+        <v>15332</v>
       </c>
       <c r="X9">
-        <v>17500</v>
+        <v>17728</v>
       </c>
       <c r="Y9">
-        <v>16000</v>
+        <v>16224</v>
       </c>
       <c r="Z9">
         <v>17000</v>
       </c>
       <c r="AA9">
-        <v>11500</v>
+        <v>12018</v>
       </c>
       <c r="AB9">
-        <v>15500</v>
+        <v>15950</v>
       </c>
       <c r="AC9">
-        <v>17700</v>
+        <v>17930</v>
       </c>
       <c r="AD9">
-        <v>16250</v>
+        <v>16478</v>
       </c>
       <c r="AE9">
         <v>17200.5</v>
       </c>
       <c r="AF9">
-        <v>8500</v>
+        <v>8883</v>
       </c>
       <c r="AG9">
-        <v>11270</v>
+        <v>11597</v>
       </c>
       <c r="AH9">
-        <v>17000</v>
+        <v>17221</v>
       </c>
       <c r="AI9">
-        <v>16000</v>
+        <v>16224</v>
       </c>
       <c r="AJ9">
         <v>15600</v>
@@ -2860,13 +2862,13 @@
         <v>-35.15</v>
       </c>
       <c r="BE9">
-        <v>70</v>
+        <v>62.68</v>
       </c>
       <c r="BF9">
-        <v>49.57</v>
+        <v>43.12</v>
       </c>
       <c r="BG9">
-        <v>83.53</v>
+        <v>75.62</v>
       </c>
       <c r="BI9">
         <v>33</v>
@@ -2884,16 +2886,16 @@
         <v>68</v>
       </c>
       <c r="BN9">
-        <v>13000</v>
+        <v>13585</v>
       </c>
       <c r="BO9">
-        <v>17500</v>
+        <v>18008</v>
       </c>
       <c r="BP9">
-        <v>19750</v>
+        <v>20007</v>
       </c>
       <c r="BQ9">
-        <v>20154</v>
+        <v>20436</v>
       </c>
       <c r="BR9">
         <v>19859.5</v>
@@ -2902,7 +2904,7 @@
         <v>43.93</v>
       </c>
       <c r="BT9">
-        <v>52.77</v>
+        <v>46.19</v>
       </c>
       <c r="BU9">
         <v>58.99</v>
@@ -2950,7 +2952,7 @@
         <v>34.17</v>
       </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -3000,46 +3002,46 @@
         <v>41</v>
       </c>
       <c r="V10">
-        <v>17750</v>
+        <v>18549</v>
       </c>
       <c r="W10">
-        <v>19000</v>
+        <v>19551</v>
       </c>
       <c r="X10">
-        <v>22000</v>
+        <v>22286</v>
       </c>
       <c r="Y10">
-        <v>20000</v>
+        <v>20280</v>
       </c>
       <c r="Z10">
         <v>25000</v>
       </c>
       <c r="AA10">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="AB10">
-        <v>16382.5</v>
+        <v>16858</v>
       </c>
       <c r="AC10">
-        <v>20000</v>
+        <v>20260</v>
       </c>
       <c r="AD10">
-        <v>20000</v>
+        <v>20280</v>
       </c>
       <c r="AE10">
         <v>24995</v>
       </c>
       <c r="AF10">
-        <v>15000</v>
+        <v>15675</v>
       </c>
       <c r="AG10">
-        <v>22750</v>
+        <v>23410</v>
       </c>
       <c r="AH10">
-        <v>23750</v>
+        <v>24059</v>
       </c>
       <c r="AI10">
-        <v>20200</v>
+        <v>20483</v>
       </c>
       <c r="AJ10">
         <v>25000</v>
@@ -3087,13 +3089,13 @@
         <v>-23.42</v>
       </c>
       <c r="BE10">
-        <v>40.85</v>
+        <v>34.78</v>
       </c>
       <c r="BF10">
-        <v>24.98</v>
+        <v>19.59</v>
       </c>
       <c r="BG10">
-        <v>66.67</v>
+        <v>59.49</v>
       </c>
       <c r="BI10">
         <v>40</v>
@@ -3111,16 +3113,16 @@
         <v>60</v>
       </c>
       <c r="BN10">
-        <v>19250</v>
+        <v>20116</v>
       </c>
       <c r="BO10">
-        <v>19000</v>
+        <v>19551</v>
       </c>
       <c r="BP10">
-        <v>27000</v>
+        <v>27351</v>
       </c>
       <c r="BQ10">
-        <v>25000</v>
+        <v>25350</v>
       </c>
       <c r="BR10">
         <v>30000</v>
@@ -3129,7 +3131,7 @@
         <v>-8.9</v>
       </c>
       <c r="BT10">
-        <v>55.84</v>
+        <v>49.14</v>
       </c>
       <c r="BU10">
         <v>67.069999999999993</v>
@@ -3177,12 +3179,12 @@
         <v>44.44</v>
       </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -3247,61 +3249,61 @@
         <v>23</v>
       </c>
       <c r="V12">
-        <v>27500</v>
+        <v>28738</v>
       </c>
       <c r="W12">
-        <v>26100</v>
+        <v>26857</v>
       </c>
       <c r="X12">
-        <v>34000</v>
+        <v>34442</v>
       </c>
       <c r="Y12">
-        <v>37400</v>
+        <v>37924</v>
       </c>
       <c r="Z12">
         <v>75000</v>
       </c>
       <c r="AA12">
-        <v>20302.5</v>
+        <v>21216</v>
       </c>
       <c r="AB12">
-        <v>18800</v>
+        <v>19345</v>
       </c>
       <c r="AC12">
-        <v>33200</v>
+        <v>33632</v>
       </c>
       <c r="AD12">
-        <v>30500</v>
+        <v>30927</v>
       </c>
       <c r="AE12">
         <v>85000</v>
       </c>
       <c r="AF12">
-        <v>38900</v>
+        <v>40651</v>
       </c>
       <c r="AG12">
-        <v>20000</v>
+        <v>20580</v>
       </c>
       <c r="AH12">
-        <v>25000</v>
+        <v>25325</v>
       </c>
       <c r="AI12">
-        <v>30000</v>
+        <v>30420</v>
       </c>
       <c r="AJ12">
         <v>37000</v>
       </c>
       <c r="AK12">
-        <v>252000</v>
+        <v>263340</v>
       </c>
       <c r="AL12">
-        <v>205000</v>
+        <v>210945</v>
       </c>
       <c r="AM12">
-        <v>234720</v>
+        <v>237771</v>
       </c>
       <c r="AN12">
-        <v>155412.5</v>
+        <v>157588</v>
       </c>
       <c r="AO12">
         <v>285000</v>
@@ -3352,16 +3354,16 @@
         <v>-57.09</v>
       </c>
       <c r="BE12">
-        <v>172.73</v>
+        <v>160.97999999999999</v>
       </c>
       <c r="BF12">
-        <v>318.67</v>
+        <v>300.64</v>
       </c>
       <c r="BG12">
-        <v>-4.88</v>
+        <v>-8.98</v>
       </c>
       <c r="BH12">
-        <v>13.1</v>
+        <v>8.23</v>
       </c>
       <c r="BI12">
         <v>56</v>
@@ -3379,16 +3381,16 @@
         <v>128</v>
       </c>
       <c r="BN12">
-        <v>38850</v>
+        <v>40598</v>
       </c>
       <c r="BO12">
-        <v>57900</v>
+        <v>59579</v>
       </c>
       <c r="BP12">
-        <v>40850</v>
+        <v>41381</v>
       </c>
       <c r="BQ12">
-        <v>39500</v>
+        <v>40053</v>
       </c>
       <c r="BR12">
         <v>100000</v>
@@ -3397,7 +3399,7 @@
         <v>20.36</v>
       </c>
       <c r="BT12">
-        <v>157.4</v>
+        <v>146.32</v>
       </c>
       <c r="BU12">
         <v>66.06</v>
@@ -3460,7 +3462,7 @@
         <v>61.84</v>
       </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -3510,46 +3512,46 @@
         <v>35</v>
       </c>
       <c r="V13">
-        <v>187400</v>
+        <v>195833</v>
       </c>
       <c r="W13">
-        <v>239500</v>
+        <v>246446</v>
       </c>
       <c r="X13">
-        <v>174450</v>
+        <v>176718</v>
       </c>
       <c r="Y13">
-        <v>218500</v>
+        <v>221559</v>
       </c>
       <c r="Z13">
         <v>204000</v>
       </c>
       <c r="AA13">
-        <v>307000</v>
+        <v>320815</v>
       </c>
       <c r="AB13">
-        <v>287719</v>
+        <v>296063</v>
       </c>
       <c r="AC13">
-        <v>336500</v>
+        <v>340875</v>
       </c>
       <c r="AD13">
-        <v>275000</v>
+        <v>278850</v>
       </c>
       <c r="AE13">
         <v>273000</v>
       </c>
       <c r="AK13">
-        <v>186800</v>
+        <v>195206</v>
       </c>
       <c r="AL13">
-        <v>230000</v>
+        <v>236670</v>
       </c>
       <c r="AM13">
-        <v>172500</v>
+        <v>174743</v>
       </c>
       <c r="AN13">
-        <v>206000</v>
+        <v>208884</v>
       </c>
       <c r="AO13">
         <v>198000</v>
@@ -3594,13 +3596,13 @@
         <v>1.45</v>
       </c>
       <c r="BE13">
-        <v>8.86</v>
+        <v>4.17</v>
       </c>
       <c r="BF13">
-        <v>-11.07</v>
+        <v>-14.9</v>
       </c>
       <c r="BH13">
-        <v>6</v>
+        <v>1.43</v>
       </c>
       <c r="BI13">
         <v>23</v>
@@ -3618,16 +3620,16 @@
         <v>36</v>
       </c>
       <c r="BN13">
-        <v>188000</v>
+        <v>196460</v>
       </c>
       <c r="BO13">
-        <v>239500</v>
+        <v>246446</v>
       </c>
       <c r="BP13">
-        <v>174000</v>
+        <v>176262</v>
       </c>
       <c r="BQ13">
-        <v>218500</v>
+        <v>221559</v>
       </c>
       <c r="BR13">
         <v>204000</v>
@@ -3636,7 +3638,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="BT13">
-        <v>8.51</v>
+        <v>3.84</v>
       </c>
       <c r="BU13">
         <v>4.17</v>
@@ -3684,7 +3686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -3749,61 +3751,61 @@
         <v>12</v>
       </c>
       <c r="V14">
-        <v>61650</v>
+        <v>64424</v>
       </c>
       <c r="W14">
-        <v>65750</v>
+        <v>67657</v>
       </c>
       <c r="X14">
-        <v>115000</v>
+        <v>116495</v>
       </c>
       <c r="Y14">
-        <v>119500</v>
+        <v>121173</v>
       </c>
       <c r="Z14">
         <v>110000</v>
       </c>
       <c r="AA14">
-        <v>139000</v>
+        <v>145255</v>
       </c>
       <c r="AB14">
-        <v>111000</v>
+        <v>114219</v>
       </c>
       <c r="AC14">
-        <v>176500</v>
+        <v>178795</v>
       </c>
       <c r="AD14">
-        <v>165000</v>
+        <v>167310</v>
       </c>
       <c r="AE14">
         <v>130000</v>
       </c>
       <c r="AF14">
-        <v>33550</v>
+        <v>35060</v>
       </c>
       <c r="AG14">
-        <v>57950</v>
+        <v>59631</v>
       </c>
       <c r="AH14">
-        <v>88000</v>
+        <v>89144</v>
       </c>
       <c r="AI14">
-        <v>86500</v>
+        <v>87711</v>
       </c>
       <c r="AJ14">
         <v>115000</v>
       </c>
       <c r="AK14">
-        <v>56600</v>
+        <v>59147</v>
       </c>
       <c r="AL14">
-        <v>44000</v>
+        <v>45276</v>
       </c>
       <c r="AM14">
-        <v>44250</v>
+        <v>44825</v>
       </c>
       <c r="AN14">
-        <v>48500</v>
+        <v>49179</v>
       </c>
       <c r="AO14">
         <v>67750</v>
@@ -3854,16 +3856,16 @@
         <v>-47.62</v>
       </c>
       <c r="BE14">
-        <v>78.430000000000007</v>
+        <v>70.739999999999995</v>
       </c>
       <c r="BF14">
-        <v>-6.47</v>
+        <v>-10.5</v>
       </c>
       <c r="BG14">
-        <v>242.77</v>
+        <v>228.01</v>
       </c>
       <c r="BH14">
-        <v>19.7</v>
+        <v>14.55</v>
       </c>
       <c r="BI14">
         <v>27</v>
@@ -3881,16 +3883,16 @@
         <v>48</v>
       </c>
       <c r="BN14">
-        <v>90000</v>
+        <v>94050</v>
       </c>
       <c r="BO14">
-        <v>84750</v>
+        <v>87208</v>
       </c>
       <c r="BP14">
-        <v>120000</v>
+        <v>121560</v>
       </c>
       <c r="BQ14">
-        <v>134400</v>
+        <v>136282</v>
       </c>
       <c r="BR14">
         <v>117593.5</v>
@@ -3899,7 +3901,7 @@
         <v>-7</v>
       </c>
       <c r="BT14">
-        <v>30.66</v>
+        <v>25.03</v>
       </c>
       <c r="BU14">
         <v>64.709999999999994</v>
@@ -3962,7 +3964,7 @@
         <v>73.849999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -4012,46 +4014,46 @@
         <v>19</v>
       </c>
       <c r="V15">
-        <v>8501</v>
+        <v>8884</v>
       </c>
       <c r="W15">
-        <v>17050.5</v>
+        <v>17545</v>
       </c>
       <c r="X15">
-        <v>14500</v>
+        <v>14689</v>
       </c>
       <c r="Y15">
-        <v>13590</v>
+        <v>13780</v>
       </c>
       <c r="Z15">
         <v>20000</v>
       </c>
       <c r="AA15">
-        <v>8500</v>
+        <v>8883</v>
       </c>
       <c r="AB15">
-        <v>17500</v>
+        <v>18008</v>
       </c>
       <c r="AC15">
-        <v>14500</v>
+        <v>14689</v>
       </c>
       <c r="AD15">
-        <v>12750</v>
+        <v>12929</v>
       </c>
       <c r="AE15">
         <v>22900</v>
       </c>
       <c r="AF15">
-        <v>15250</v>
+        <v>15936</v>
       </c>
       <c r="AG15">
-        <v>14500</v>
+        <v>14921</v>
       </c>
       <c r="AH15">
-        <v>12810</v>
+        <v>12977</v>
       </c>
       <c r="AI15">
-        <v>22300</v>
+        <v>22612</v>
       </c>
       <c r="AJ15">
         <v>10924</v>
@@ -4099,13 +4101,13 @@
         <v>-35.450000000000003</v>
       </c>
       <c r="BE15">
-        <v>135.27000000000001</v>
+        <v>125.12</v>
       </c>
       <c r="BF15">
-        <v>169.41</v>
+        <v>157.80000000000001</v>
       </c>
       <c r="BG15">
-        <v>-28.37</v>
+        <v>-31.45</v>
       </c>
       <c r="BI15">
         <v>12</v>
@@ -4123,16 +4125,16 @@
         <v>39</v>
       </c>
       <c r="BN15">
-        <v>16426</v>
+        <v>17165</v>
       </c>
       <c r="BO15">
-        <v>23600</v>
+        <v>24284</v>
       </c>
       <c r="BP15">
-        <v>15000</v>
+        <v>15195</v>
       </c>
       <c r="BQ15">
-        <v>13925</v>
+        <v>14120</v>
       </c>
       <c r="BR15">
         <v>22012</v>
@@ -4141,7 +4143,7 @@
         <v>109.82</v>
       </c>
       <c r="BT15">
-        <v>34.01</v>
+        <v>28.24</v>
       </c>
       <c r="BU15">
         <v>64.709999999999994</v>
@@ -4189,7 +4191,7 @@
         <v>49.37</v>
       </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -4239,46 +4241,46 @@
         <v>20</v>
       </c>
       <c r="V16">
-        <v>10000</v>
+        <v>10450</v>
       </c>
       <c r="W16">
-        <v>15000</v>
+        <v>15435</v>
       </c>
       <c r="X16">
-        <v>22950</v>
+        <v>23248</v>
       </c>
       <c r="Y16">
-        <v>38400</v>
+        <v>38938</v>
       </c>
       <c r="Z16">
         <v>22975</v>
       </c>
       <c r="AA16">
-        <v>16000</v>
+        <v>16720</v>
       </c>
       <c r="AB16">
-        <v>31750</v>
+        <v>32671</v>
       </c>
       <c r="AC16">
-        <v>47250</v>
+        <v>47864</v>
       </c>
       <c r="AD16">
-        <v>60000</v>
+        <v>60840</v>
       </c>
       <c r="AE16">
         <v>30500</v>
       </c>
       <c r="AF16">
-        <v>6250</v>
+        <v>6531</v>
       </c>
       <c r="AG16">
-        <v>3500</v>
+        <v>3602</v>
       </c>
       <c r="AH16">
-        <v>5550</v>
+        <v>5622</v>
       </c>
       <c r="AI16">
-        <v>8700</v>
+        <v>8822</v>
       </c>
       <c r="AJ16">
         <v>14200</v>
@@ -4326,13 +4328,13 @@
         <v>-39.58</v>
       </c>
       <c r="BE16">
-        <v>129.75</v>
+        <v>119.86</v>
       </c>
       <c r="BF16">
-        <v>90.63</v>
+        <v>82.42</v>
       </c>
       <c r="BG16">
-        <v>127.2</v>
+        <v>117.42</v>
       </c>
       <c r="BI16">
         <v>16</v>
@@ -4350,16 +4352,16 @@
         <v>35</v>
       </c>
       <c r="BN16">
-        <v>54500</v>
+        <v>56953</v>
       </c>
       <c r="BO16">
-        <v>32500</v>
+        <v>33443</v>
       </c>
       <c r="BP16">
-        <v>14800</v>
+        <v>14992</v>
       </c>
       <c r="BQ16">
-        <v>16250</v>
+        <v>16478</v>
       </c>
       <c r="BR16">
         <v>20500</v>
@@ -4368,7 +4370,7 @@
         <v>44.74</v>
       </c>
       <c r="BT16">
-        <v>-62.39</v>
+        <v>-64.010000000000005</v>
       </c>
       <c r="BU16">
         <v>64.44</v>
@@ -4416,7 +4418,7 @@
         <v>51.47</v>
       </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -4478,58 +4480,58 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>12000</v>
+        <v>12540</v>
       </c>
       <c r="W17">
-        <v>11500</v>
+        <v>11834</v>
       </c>
       <c r="X17">
-        <v>16250</v>
+        <v>16461</v>
       </c>
       <c r="Y17">
-        <v>16700</v>
+        <v>16934</v>
       </c>
       <c r="Z17">
         <v>14512.5</v>
       </c>
       <c r="AA17">
-        <v>13000</v>
+        <v>13585</v>
       </c>
       <c r="AB17">
-        <v>12000</v>
+        <v>12348</v>
       </c>
       <c r="AC17">
-        <v>16500</v>
+        <v>16715</v>
       </c>
       <c r="AD17">
-        <v>16420</v>
+        <v>16650</v>
       </c>
       <c r="AE17">
         <v>14475</v>
       </c>
       <c r="AF17">
-        <v>11728</v>
+        <v>12256</v>
       </c>
       <c r="AG17">
-        <v>10000</v>
+        <v>10290</v>
       </c>
       <c r="AH17">
-        <v>16250</v>
+        <v>16461</v>
       </c>
       <c r="AI17">
-        <v>16967</v>
+        <v>17205</v>
       </c>
       <c r="AJ17">
         <v>15000</v>
       </c>
       <c r="AL17">
-        <v>1000</v>
+        <v>1029</v>
       </c>
       <c r="AM17">
-        <v>3000</v>
+        <v>3039</v>
       </c>
       <c r="AN17">
-        <v>85000</v>
+        <v>86190</v>
       </c>
       <c r="AO17">
         <v>14325</v>
@@ -4577,13 +4579,13 @@
         <v>-16.13</v>
       </c>
       <c r="BE17">
-        <v>20.94</v>
+        <v>15.73</v>
       </c>
       <c r="BF17">
-        <v>11.35</v>
+        <v>6.55</v>
       </c>
       <c r="BG17">
-        <v>27.9</v>
+        <v>22.39</v>
       </c>
       <c r="BI17">
         <v>102</v>
@@ -4601,16 +4603,16 @@
         <v>164</v>
       </c>
       <c r="BN17">
-        <v>19675</v>
+        <v>20560</v>
       </c>
       <c r="BO17">
-        <v>17000</v>
+        <v>17493</v>
       </c>
       <c r="BP17">
-        <v>22000</v>
+        <v>22286</v>
       </c>
       <c r="BQ17">
-        <v>20750</v>
+        <v>21041</v>
       </c>
       <c r="BR17">
         <v>20000</v>
@@ -4619,7 +4621,7 @@
         <v>7.05</v>
       </c>
       <c r="BT17">
-        <v>1.65</v>
+        <v>-2.72</v>
       </c>
       <c r="BU17">
         <v>58.72</v>
@@ -4679,7 +4681,7 @@
         <v>38.86</v>
       </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -4738,58 +4740,58 @@
         <v>2</v>
       </c>
       <c r="V18">
-        <v>26000</v>
+        <v>27170</v>
       </c>
       <c r="W18">
-        <v>27100</v>
+        <v>27886</v>
       </c>
       <c r="X18">
-        <v>21500</v>
+        <v>21780</v>
       </c>
       <c r="Y18">
-        <v>26300</v>
+        <v>26668</v>
       </c>
       <c r="Z18">
         <v>25000</v>
       </c>
       <c r="AA18">
-        <v>24250</v>
+        <v>25341</v>
       </c>
       <c r="AB18">
-        <v>15850</v>
+        <v>16310</v>
       </c>
       <c r="AC18">
-        <v>20000</v>
+        <v>20260</v>
       </c>
       <c r="AD18">
-        <v>21000</v>
+        <v>21294</v>
       </c>
       <c r="AE18">
         <v>18400</v>
       </c>
       <c r="AF18">
-        <v>20000</v>
+        <v>20900</v>
       </c>
       <c r="AG18">
-        <v>28750</v>
+        <v>29584</v>
       </c>
       <c r="AH18">
-        <v>32900</v>
+        <v>33328</v>
       </c>
       <c r="AI18">
-        <v>27600</v>
+        <v>27986</v>
       </c>
       <c r="AJ18">
         <v>26000</v>
       </c>
       <c r="AK18">
-        <v>105000</v>
+        <v>109725</v>
       </c>
       <c r="AL18">
-        <v>85000</v>
+        <v>87465</v>
       </c>
       <c r="AN18">
-        <v>160000</v>
+        <v>162240</v>
       </c>
       <c r="AP18">
         <v>5</v>
@@ -4834,13 +4836,13 @@
         <v>-62.78</v>
       </c>
       <c r="BE18">
-        <v>-3.85</v>
+        <v>-7.99</v>
       </c>
       <c r="BF18">
-        <v>-24.12</v>
+        <v>-27.39</v>
       </c>
       <c r="BG18">
-        <v>30</v>
+        <v>24.4</v>
       </c>
       <c r="BI18">
         <v>12</v>
@@ -4858,16 +4860,16 @@
         <v>24</v>
       </c>
       <c r="BN18">
-        <v>36500</v>
+        <v>38143</v>
       </c>
       <c r="BO18">
-        <v>27100</v>
+        <v>27886</v>
       </c>
       <c r="BP18">
-        <v>25475</v>
+        <v>25806</v>
       </c>
       <c r="BQ18">
-        <v>26300</v>
+        <v>26668</v>
       </c>
       <c r="BR18">
         <v>26650</v>
@@ -4876,7 +4878,7 @@
         <v>24.13</v>
       </c>
       <c r="BT18">
-        <v>-26.99</v>
+        <v>-30.13</v>
       </c>
       <c r="BU18">
         <v>55.56</v>
@@ -4933,7 +4935,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -4956,22 +4958,22 @@
         <v>3</v>
       </c>
       <c r="V19">
-        <v>110000</v>
+        <v>114950</v>
       </c>
       <c r="W19">
-        <v>119000</v>
+        <v>122451</v>
       </c>
       <c r="Y19">
-        <v>125000</v>
+        <v>126750</v>
       </c>
       <c r="AA19">
-        <v>110000</v>
+        <v>114950</v>
       </c>
       <c r="AB19">
-        <v>119000</v>
+        <v>122451</v>
       </c>
       <c r="AD19">
-        <v>125000</v>
+        <v>126750</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -4998,10 +5000,10 @@
         <v>2</v>
       </c>
       <c r="BN19">
-        <v>110000</v>
+        <v>114950</v>
       </c>
       <c r="BQ19">
-        <v>102225</v>
+        <v>103656</v>
       </c>
       <c r="BU19">
         <v>100</v>
@@ -5019,7 +5021,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -5069,46 +5071,46 @@
         <v>27</v>
       </c>
       <c r="V20">
-        <v>13250</v>
+        <v>13846</v>
       </c>
       <c r="W20">
-        <v>11850</v>
+        <v>12194</v>
       </c>
       <c r="X20">
-        <v>12000</v>
+        <v>12156</v>
       </c>
       <c r="Y20">
-        <v>11500</v>
+        <v>11661</v>
       </c>
       <c r="Z20">
         <v>15000</v>
       </c>
       <c r="AA20">
-        <v>16025</v>
+        <v>16746</v>
       </c>
       <c r="AB20">
-        <v>19750</v>
+        <v>20323</v>
       </c>
       <c r="AC20">
-        <v>12000</v>
+        <v>12156</v>
       </c>
       <c r="AD20">
-        <v>10450</v>
+        <v>10596</v>
       </c>
       <c r="AE20">
         <v>17100</v>
       </c>
       <c r="AF20">
-        <v>8500</v>
+        <v>8883</v>
       </c>
       <c r="AG20">
-        <v>8700</v>
+        <v>8952</v>
       </c>
       <c r="AH20">
-        <v>12375</v>
+        <v>12536</v>
       </c>
       <c r="AI20">
-        <v>12900</v>
+        <v>13081</v>
       </c>
       <c r="AJ20">
         <v>14100</v>
@@ -5156,13 +5158,13 @@
         <v>-10.59</v>
       </c>
       <c r="BE20">
-        <v>13.21</v>
+        <v>8.33</v>
       </c>
       <c r="BF20">
-        <v>6.71</v>
+        <v>2.11</v>
       </c>
       <c r="BG20">
-        <v>65.88</v>
+        <v>58.73</v>
       </c>
       <c r="BI20">
         <v>18</v>
@@ -5180,16 +5182,16 @@
         <v>40</v>
       </c>
       <c r="BN20">
-        <v>24600</v>
+        <v>25707</v>
       </c>
       <c r="BO20">
-        <v>16750</v>
+        <v>17236</v>
       </c>
       <c r="BP20">
-        <v>15000</v>
+        <v>15195</v>
       </c>
       <c r="BQ20">
-        <v>15000</v>
+        <v>15210</v>
       </c>
       <c r="BR20">
         <v>14750</v>
@@ -5198,7 +5200,7 @@
         <v>91.39</v>
       </c>
       <c r="BT20">
-        <v>-40.04</v>
+        <v>-42.62</v>
       </c>
       <c r="BU20">
         <v>69.349999999999994</v>
@@ -5246,7 +5248,7 @@
         <v>55.56</v>
       </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -5296,46 +5298,46 @@
         <v>26</v>
       </c>
       <c r="V21">
-        <v>29992.5</v>
+        <v>31342</v>
       </c>
       <c r="W21">
-        <v>30500</v>
+        <v>31385</v>
       </c>
       <c r="X21">
-        <v>35000</v>
+        <v>35455</v>
       </c>
       <c r="Y21">
-        <v>42000</v>
+        <v>42588</v>
       </c>
       <c r="Z21">
         <v>46525</v>
       </c>
       <c r="AA21">
-        <v>29942.5</v>
+        <v>31290</v>
       </c>
       <c r="AB21">
-        <v>30750</v>
+        <v>31642</v>
       </c>
       <c r="AC21">
-        <v>35000</v>
+        <v>35455</v>
       </c>
       <c r="AD21">
-        <v>41900</v>
+        <v>42487</v>
       </c>
       <c r="AE21">
         <v>46250</v>
       </c>
       <c r="AF21">
-        <v>35500</v>
+        <v>37098</v>
       </c>
       <c r="AG21">
-        <v>30000</v>
+        <v>30870</v>
       </c>
       <c r="AH21">
-        <v>38250</v>
+        <v>38747</v>
       </c>
       <c r="AI21">
-        <v>56197</v>
+        <v>56984</v>
       </c>
       <c r="AJ21">
         <v>51125</v>
@@ -5383,13 +5385,13 @@
         <v>-58.92</v>
       </c>
       <c r="BE21">
-        <v>55.12</v>
+        <v>48.44</v>
       </c>
       <c r="BF21">
-        <v>54.46</v>
+        <v>47.81</v>
       </c>
       <c r="BG21">
-        <v>44.01</v>
+        <v>37.81</v>
       </c>
       <c r="BI21">
         <v>88</v>
@@ -5407,16 +5409,16 @@
         <v>147</v>
       </c>
       <c r="BN21">
-        <v>37000</v>
+        <v>38665</v>
       </c>
       <c r="BO21">
-        <v>42500</v>
+        <v>43733</v>
       </c>
       <c r="BP21">
-        <v>41750</v>
+        <v>42293</v>
       </c>
       <c r="BQ21">
-        <v>50315</v>
+        <v>51019</v>
       </c>
       <c r="BR21">
         <v>53000</v>
@@ -5425,7 +5427,7 @@
         <v>25.81</v>
       </c>
       <c r="BT21">
-        <v>43.24</v>
+        <v>37.07</v>
       </c>
       <c r="BU21">
         <v>92.22</v>
@@ -5473,7 +5475,7 @@
         <v>61.51</v>
       </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -5538,61 +5540,61 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>76000</v>
+        <v>79420</v>
       </c>
       <c r="W22">
-        <v>85500</v>
+        <v>87980</v>
       </c>
       <c r="X22">
-        <v>92500</v>
+        <v>93703</v>
       </c>
       <c r="Y22">
-        <v>93400</v>
+        <v>94708</v>
       </c>
       <c r="Z22">
         <v>102750</v>
       </c>
       <c r="AA22">
-        <v>76000</v>
+        <v>79420</v>
       </c>
       <c r="AB22">
-        <v>86250</v>
+        <v>88751</v>
       </c>
       <c r="AC22">
-        <v>91500</v>
+        <v>92690</v>
       </c>
       <c r="AD22">
-        <v>91375</v>
+        <v>92654</v>
       </c>
       <c r="AE22">
         <v>102000</v>
       </c>
       <c r="AF22">
-        <v>81700</v>
+        <v>85377</v>
       </c>
       <c r="AG22">
-        <v>80137.5</v>
+        <v>82461</v>
       </c>
       <c r="AH22">
-        <v>117250</v>
+        <v>118774</v>
       </c>
       <c r="AI22">
-        <v>118543.5</v>
+        <v>120203</v>
       </c>
       <c r="AJ22">
         <v>121975</v>
       </c>
       <c r="AK22">
-        <v>12700</v>
+        <v>13272</v>
       </c>
       <c r="AL22">
-        <v>25000</v>
+        <v>25725</v>
       </c>
       <c r="AM22">
-        <v>45000</v>
+        <v>45585</v>
       </c>
       <c r="AN22">
-        <v>99500</v>
+        <v>100893</v>
       </c>
       <c r="AO22">
         <v>14000</v>
@@ -5643,16 +5645,16 @@
         <v>-59.79</v>
       </c>
       <c r="BE22">
-        <v>35.200000000000003</v>
+        <v>29.38</v>
       </c>
       <c r="BF22">
-        <v>34.21</v>
+        <v>28.43</v>
       </c>
       <c r="BG22">
-        <v>49.3</v>
+        <v>42.87</v>
       </c>
       <c r="BH22">
-        <v>10.24</v>
+        <v>5.49</v>
       </c>
       <c r="BI22">
         <v>218</v>
@@ -5670,16 +5672,16 @@
         <v>410</v>
       </c>
       <c r="BN22">
-        <v>81750</v>
+        <v>85429</v>
       </c>
       <c r="BO22">
-        <v>94000</v>
+        <v>96726</v>
       </c>
       <c r="BP22">
-        <v>97000</v>
+        <v>98261</v>
       </c>
       <c r="BQ22">
-        <v>99000</v>
+        <v>100386</v>
       </c>
       <c r="BR22">
         <v>107000</v>
@@ -5688,7 +5690,7 @@
         <v>12.19</v>
       </c>
       <c r="BT22">
-        <v>30.89</v>
+        <v>25.25</v>
       </c>
       <c r="BU22">
         <v>96.76</v>
@@ -5751,7 +5753,7 @@
         <v>79.150000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -5810,55 +5812,55 @@
         <v>1</v>
       </c>
       <c r="V23">
-        <v>7750</v>
+        <v>8099</v>
       </c>
       <c r="W23">
-        <v>10880</v>
+        <v>11196</v>
       </c>
       <c r="X23">
-        <v>19750</v>
+        <v>20007</v>
       </c>
       <c r="Y23">
-        <v>15250</v>
+        <v>15464</v>
       </c>
       <c r="Z23">
         <v>13700</v>
       </c>
       <c r="AA23">
-        <v>8500</v>
+        <v>8883</v>
       </c>
       <c r="AB23">
-        <v>18500</v>
+        <v>19037</v>
       </c>
       <c r="AC23">
-        <v>19800</v>
+        <v>20057</v>
       </c>
       <c r="AD23">
-        <v>15500</v>
+        <v>15717</v>
       </c>
       <c r="AE23">
         <v>17000</v>
       </c>
       <c r="AF23">
-        <v>7100</v>
+        <v>7420</v>
       </c>
       <c r="AG23">
-        <v>5589</v>
+        <v>5751</v>
       </c>
       <c r="AH23">
-        <v>15375</v>
+        <v>15575</v>
       </c>
       <c r="AI23">
-        <v>13000</v>
+        <v>13182</v>
       </c>
       <c r="AJ23">
         <v>9000</v>
       </c>
       <c r="AK23">
-        <v>6500</v>
+        <v>6793</v>
       </c>
       <c r="AN23">
-        <v>33450</v>
+        <v>33918</v>
       </c>
       <c r="AO23">
         <v>4513</v>
@@ -5909,16 +5911,16 @@
         <v>-29.18</v>
       </c>
       <c r="BE23">
-        <v>76.77</v>
+        <v>69.16</v>
       </c>
       <c r="BF23">
-        <v>100</v>
+        <v>91.38</v>
       </c>
       <c r="BG23">
-        <v>26.76</v>
+        <v>21.29</v>
       </c>
       <c r="BH23">
-        <v>-30.57</v>
+        <v>-33.56</v>
       </c>
       <c r="BI23">
         <v>17</v>
@@ -5936,16 +5938,16 @@
         <v>29</v>
       </c>
       <c r="BN23">
-        <v>10600</v>
+        <v>11077</v>
       </c>
       <c r="BO23">
-        <v>20475</v>
+        <v>21069</v>
       </c>
       <c r="BP23">
-        <v>25750</v>
+        <v>26085</v>
       </c>
       <c r="BQ23">
-        <v>24750</v>
+        <v>25097</v>
       </c>
       <c r="BR23">
         <v>16000</v>
@@ -5954,7 +5956,7 @@
         <v>-8.4600000000000009</v>
       </c>
       <c r="BT23">
-        <v>50.94</v>
+        <v>44.44</v>
       </c>
       <c r="BU23">
         <v>45.45</v>
@@ -6011,7 +6013,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -6061,46 +6063,46 @@
         <v>1</v>
       </c>
       <c r="V24">
-        <v>18250</v>
+        <v>19071</v>
       </c>
       <c r="W24">
-        <v>21500</v>
+        <v>22124</v>
       </c>
       <c r="X24">
-        <v>25025</v>
+        <v>25350</v>
       </c>
       <c r="Y24">
-        <v>22000</v>
+        <v>22308</v>
       </c>
       <c r="Z24">
         <v>35000</v>
       </c>
       <c r="AA24">
-        <v>18750</v>
+        <v>19594</v>
       </c>
       <c r="AB24">
-        <v>21375</v>
+        <v>21995</v>
       </c>
       <c r="AC24">
-        <v>25050</v>
+        <v>25376</v>
       </c>
       <c r="AD24">
-        <v>22000</v>
+        <v>22308</v>
       </c>
       <c r="AE24">
         <v>35250</v>
       </c>
       <c r="AF24">
-        <v>6800</v>
+        <v>7106</v>
       </c>
       <c r="AG24">
-        <v>36500</v>
+        <v>37559</v>
       </c>
       <c r="AH24">
-        <v>19500</v>
+        <v>19754</v>
       </c>
       <c r="AI24">
-        <v>25000</v>
+        <v>25350</v>
       </c>
       <c r="AJ24">
         <v>14400</v>
@@ -6148,13 +6150,13 @@
         <v>-33.19</v>
       </c>
       <c r="BE24">
-        <v>91.78</v>
+        <v>83.52</v>
       </c>
       <c r="BF24">
-        <v>88</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="BG24">
-        <v>111.76</v>
+        <v>102.65</v>
       </c>
       <c r="BI24">
         <v>45</v>
@@ -6172,16 +6174,16 @@
         <v>99</v>
       </c>
       <c r="BN24">
-        <v>24900</v>
+        <v>26021</v>
       </c>
       <c r="BO24">
-        <v>25000</v>
+        <v>25725</v>
       </c>
       <c r="BP24">
-        <v>26000</v>
+        <v>26338</v>
       </c>
       <c r="BQ24">
-        <v>22000</v>
+        <v>22308</v>
       </c>
       <c r="BR24">
         <v>29000</v>
@@ -6190,7 +6192,7 @@
         <v>13.03</v>
       </c>
       <c r="BT24">
-        <v>16.47</v>
+        <v>11.45</v>
       </c>
       <c r="BU24">
         <v>98.46</v>
@@ -6238,7 +6240,7 @@
         <v>39.130000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -6282,40 +6284,40 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>13100</v>
+        <v>13690</v>
       </c>
       <c r="W25">
-        <v>16000</v>
+        <v>16464</v>
       </c>
       <c r="X25">
-        <v>16517.5</v>
+        <v>16732</v>
       </c>
       <c r="Y25">
-        <v>21600</v>
+        <v>21902</v>
       </c>
       <c r="Z25">
         <v>15250.5</v>
       </c>
       <c r="AA25">
-        <v>13100</v>
+        <v>13690</v>
       </c>
       <c r="AB25">
-        <v>16475</v>
+        <v>16953</v>
       </c>
       <c r="AC25">
-        <v>16535</v>
+        <v>16750</v>
       </c>
       <c r="AD25">
-        <v>21600</v>
+        <v>21902</v>
       </c>
       <c r="AE25">
         <v>15001</v>
       </c>
       <c r="AG25">
-        <v>3525</v>
+        <v>3627</v>
       </c>
       <c r="AH25">
-        <v>15000</v>
+        <v>15195</v>
       </c>
       <c r="AJ25">
         <v>56600</v>
@@ -6360,10 +6362,10 @@
         <v>12.92</v>
       </c>
       <c r="BE25">
-        <v>16.420000000000002</v>
+        <v>11.4</v>
       </c>
       <c r="BF25">
-        <v>14.51</v>
+        <v>9.58</v>
       </c>
       <c r="BI25">
         <v>22</v>
@@ -6381,16 +6383,16 @@
         <v>35</v>
       </c>
       <c r="BN25">
-        <v>21650</v>
+        <v>22624</v>
       </c>
       <c r="BO25">
-        <v>20000</v>
+        <v>20580</v>
       </c>
       <c r="BP25">
-        <v>19500</v>
+        <v>19754</v>
       </c>
       <c r="BQ25">
-        <v>20294</v>
+        <v>20578</v>
       </c>
       <c r="BR25">
         <v>17000</v>
@@ -6399,7 +6401,7 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="BT25">
-        <v>-21.48</v>
+        <v>-24.86</v>
       </c>
       <c r="BU25">
         <v>100</v>
@@ -6441,7 +6443,7 @@
         <v>38.04</v>
       </c>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -6491,46 +6493,46 @@
         <v>150</v>
       </c>
       <c r="V26">
-        <v>8700</v>
+        <v>9092</v>
       </c>
       <c r="W26">
-        <v>13000</v>
+        <v>13377</v>
       </c>
       <c r="X26">
-        <v>13375</v>
+        <v>13549</v>
       </c>
       <c r="Y26">
-        <v>14986.5</v>
+        <v>15196</v>
       </c>
       <c r="Z26">
         <v>14000</v>
       </c>
       <c r="AA26">
-        <v>10000</v>
+        <v>10450</v>
       </c>
       <c r="AB26">
-        <v>15050</v>
+        <v>15486</v>
       </c>
       <c r="AC26">
-        <v>13925</v>
+        <v>14106</v>
       </c>
       <c r="AD26">
-        <v>15000</v>
+        <v>15210</v>
       </c>
       <c r="AE26">
         <v>13500</v>
       </c>
       <c r="AF26">
-        <v>7254</v>
+        <v>7580</v>
       </c>
       <c r="AG26">
-        <v>12350</v>
+        <v>12708</v>
       </c>
       <c r="AH26">
-        <v>12000</v>
+        <v>12156</v>
       </c>
       <c r="AI26">
-        <v>12500</v>
+        <v>12675</v>
       </c>
       <c r="AJ26">
         <v>15000</v>
@@ -6578,13 +6580,13 @@
         <v>-36.1</v>
       </c>
       <c r="BE26">
-        <v>60.92</v>
+        <v>53.98</v>
       </c>
       <c r="BF26">
-        <v>35</v>
+        <v>29.19</v>
       </c>
       <c r="BG26">
-        <v>106.78</v>
+        <v>97.89</v>
       </c>
       <c r="BI26">
         <v>49</v>
@@ -6602,16 +6604,16 @@
         <v>91</v>
       </c>
       <c r="BN26">
-        <v>11000</v>
+        <v>11495</v>
       </c>
       <c r="BO26">
-        <v>19000</v>
+        <v>19551</v>
       </c>
       <c r="BP26">
-        <v>17561</v>
+        <v>17789</v>
       </c>
       <c r="BQ26">
-        <v>23000</v>
+        <v>23322</v>
       </c>
       <c r="BR26">
         <v>18000</v>
@@ -6620,7 +6622,7 @@
         <v>-2.27</v>
       </c>
       <c r="BT26">
-        <v>63.64</v>
+        <v>56.59</v>
       </c>
       <c r="BU26">
         <v>60.82</v>
@@ -6668,7 +6670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -6727,58 +6729,58 @@
         <v>1</v>
       </c>
       <c r="V27">
-        <v>28500</v>
+        <v>29783</v>
       </c>
       <c r="W27">
-        <v>30000</v>
+        <v>30870</v>
       </c>
       <c r="X27">
-        <v>33750</v>
+        <v>34189</v>
       </c>
       <c r="Y27">
-        <v>36600</v>
+        <v>37112</v>
       </c>
       <c r="Z27">
         <v>36250</v>
       </c>
       <c r="AA27">
-        <v>27500</v>
+        <v>28738</v>
       </c>
       <c r="AB27">
-        <v>34000</v>
+        <v>34986</v>
       </c>
       <c r="AC27">
-        <v>36000</v>
+        <v>36468</v>
       </c>
       <c r="AD27">
-        <v>38750</v>
+        <v>39293</v>
       </c>
       <c r="AE27">
         <v>40000</v>
       </c>
       <c r="AF27">
-        <v>29000</v>
+        <v>30305</v>
       </c>
       <c r="AG27">
-        <v>27000</v>
+        <v>27783</v>
       </c>
       <c r="AH27">
-        <v>27801</v>
+        <v>28162</v>
       </c>
       <c r="AI27">
-        <v>26635</v>
+        <v>27008</v>
       </c>
       <c r="AJ27">
         <v>22500</v>
       </c>
       <c r="AK27">
-        <v>53750</v>
+        <v>56169</v>
       </c>
       <c r="AM27">
-        <v>119900</v>
+        <v>121459</v>
       </c>
       <c r="AN27">
-        <v>159000</v>
+        <v>161226</v>
       </c>
       <c r="AP27">
         <v>29</v>
@@ -6823,13 +6825,13 @@
         <v>-22.22</v>
       </c>
       <c r="BE27">
-        <v>27.19</v>
+        <v>21.71</v>
       </c>
       <c r="BF27">
-        <v>45.45</v>
+        <v>39.19</v>
       </c>
       <c r="BG27">
-        <v>-22.41</v>
+        <v>-25.75</v>
       </c>
       <c r="BI27">
         <v>87</v>
@@ -6847,16 +6849,16 @@
         <v>106</v>
       </c>
       <c r="BN27">
-        <v>38000</v>
+        <v>39710</v>
       </c>
       <c r="BO27">
-        <v>39000</v>
+        <v>40131</v>
       </c>
       <c r="BP27">
-        <v>45400</v>
+        <v>45990</v>
       </c>
       <c r="BQ27">
-        <v>50000</v>
+        <v>50700</v>
       </c>
       <c r="BR27">
         <v>44750</v>
@@ -6865,7 +6867,7 @@
         <v>-8.35</v>
       </c>
       <c r="BT27">
-        <v>17.760000000000002</v>
+        <v>12.69</v>
       </c>
       <c r="BU27">
         <v>71.86</v>
@@ -6922,7 +6924,7 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -6987,61 +6989,61 @@
         <v>44</v>
       </c>
       <c r="V28">
-        <v>155750</v>
+        <v>162759</v>
       </c>
       <c r="W28">
-        <v>82000</v>
+        <v>84378</v>
       </c>
       <c r="X28">
-        <v>162250</v>
+        <v>164359</v>
       </c>
       <c r="Y28">
-        <v>140000</v>
+        <v>141960</v>
       </c>
       <c r="Z28">
         <v>145000</v>
       </c>
       <c r="AA28">
-        <v>92000</v>
+        <v>96140</v>
       </c>
       <c r="AB28">
-        <v>70500</v>
+        <v>72545</v>
       </c>
       <c r="AC28">
-        <v>142000</v>
+        <v>143846</v>
       </c>
       <c r="AD28">
-        <v>119855</v>
+        <v>121533</v>
       </c>
       <c r="AE28">
         <v>107000</v>
       </c>
       <c r="AF28">
-        <v>35000</v>
+        <v>36575</v>
       </c>
       <c r="AG28">
-        <v>30400</v>
+        <v>31282</v>
       </c>
       <c r="AH28">
-        <v>104500</v>
+        <v>105859</v>
       </c>
       <c r="AI28">
-        <v>59750</v>
+        <v>60587</v>
       </c>
       <c r="AJ28">
         <v>90500</v>
       </c>
       <c r="AK28">
-        <v>197750</v>
+        <v>206649</v>
       </c>
       <c r="AL28">
-        <v>200000</v>
+        <v>205800</v>
       </c>
       <c r="AM28">
-        <v>200000</v>
+        <v>202600</v>
       </c>
       <c r="AN28">
-        <v>191250</v>
+        <v>193928</v>
       </c>
       <c r="AO28">
         <v>193000</v>
@@ -7092,16 +7094,16 @@
         <v>-70.25</v>
       </c>
       <c r="BE28">
-        <v>-6.9</v>
+        <v>-10.91</v>
       </c>
       <c r="BF28">
-        <v>16.3</v>
+        <v>11.3</v>
       </c>
       <c r="BG28">
-        <v>158.57</v>
+        <v>147.44</v>
       </c>
       <c r="BH28">
-        <v>-2.4</v>
+        <v>-6.6</v>
       </c>
       <c r="BI28">
         <v>73</v>
@@ -7119,16 +7121,16 @@
         <v>123</v>
       </c>
       <c r="BN28">
-        <v>180000</v>
+        <v>188100</v>
       </c>
       <c r="BO28">
-        <v>135000</v>
+        <v>138915</v>
       </c>
       <c r="BP28">
-        <v>190000</v>
+        <v>192470</v>
       </c>
       <c r="BQ28">
-        <v>146000</v>
+        <v>148044</v>
       </c>
       <c r="BR28">
         <v>150000</v>
@@ -7137,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="BT28">
-        <v>-16.670000000000002</v>
+        <v>-20.260000000000002</v>
       </c>
       <c r="BU28">
         <v>35.869999999999997</v>
@@ -7200,7 +7202,7 @@
         <v>79.349999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -7265,61 +7267,61 @@
         <v>8</v>
       </c>
       <c r="V29">
-        <v>43000</v>
+        <v>44935</v>
       </c>
       <c r="W29">
-        <v>40000</v>
+        <v>41160</v>
       </c>
       <c r="X29">
-        <v>50000</v>
+        <v>50650</v>
       </c>
       <c r="Y29">
-        <v>53000</v>
+        <v>53742</v>
       </c>
       <c r="Z29">
         <v>59000</v>
       </c>
       <c r="AA29">
-        <v>43250</v>
+        <v>45196</v>
       </c>
       <c r="AB29">
-        <v>42150</v>
+        <v>43372</v>
       </c>
       <c r="AC29">
-        <v>51000</v>
+        <v>51663</v>
       </c>
       <c r="AD29">
-        <v>53429</v>
+        <v>54177</v>
       </c>
       <c r="AE29">
         <v>60000</v>
       </c>
       <c r="AF29">
-        <v>38000</v>
+        <v>39710</v>
       </c>
       <c r="AG29">
-        <v>30600</v>
+        <v>31487</v>
       </c>
       <c r="AH29">
-        <v>44000</v>
+        <v>44572</v>
       </c>
       <c r="AI29">
-        <v>46250</v>
+        <v>46898</v>
       </c>
       <c r="AJ29">
         <v>50000</v>
       </c>
       <c r="AK29">
-        <v>50500</v>
+        <v>52773</v>
       </c>
       <c r="AL29">
-        <v>73000</v>
+        <v>75117</v>
       </c>
       <c r="AM29">
-        <v>80000</v>
+        <v>81040</v>
       </c>
       <c r="AN29">
-        <v>84000</v>
+        <v>85176</v>
       </c>
       <c r="AO29">
         <v>78250</v>
@@ -7370,16 +7372,16 @@
         <v>-31.47</v>
       </c>
       <c r="BE29">
-        <v>37.21</v>
+        <v>31.3</v>
       </c>
       <c r="BF29">
-        <v>38.729999999999997</v>
+        <v>32.76</v>
       </c>
       <c r="BG29">
-        <v>31.58</v>
+        <v>25.91</v>
       </c>
       <c r="BH29">
-        <v>54.95</v>
+        <v>48.28</v>
       </c>
       <c r="BI29">
         <v>222</v>
@@ -7397,16 +7399,16 @@
         <v>329</v>
       </c>
       <c r="BN29">
-        <v>56450</v>
+        <v>58990</v>
       </c>
       <c r="BO29">
-        <v>55000</v>
+        <v>56595</v>
       </c>
       <c r="BP29">
-        <v>57420</v>
+        <v>58166</v>
       </c>
       <c r="BQ29">
-        <v>59500</v>
+        <v>60333</v>
       </c>
       <c r="BR29">
         <v>65000</v>
@@ -7415,7 +7417,7 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="BT29">
-        <v>15.15</v>
+        <v>10.19</v>
       </c>
       <c r="BU29">
         <v>83.38</v>
@@ -7478,7 +7480,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -7528,46 +7530,46 @@
         <v>51</v>
       </c>
       <c r="V30">
-        <v>8000</v>
+        <v>8360</v>
       </c>
       <c r="W30">
-        <v>9000</v>
+        <v>9261</v>
       </c>
       <c r="X30">
-        <v>10000</v>
+        <v>10130</v>
       </c>
       <c r="Y30">
-        <v>9632</v>
+        <v>9767</v>
       </c>
       <c r="Z30">
         <v>12700</v>
       </c>
       <c r="AA30">
-        <v>8250</v>
+        <v>8621</v>
       </c>
       <c r="AB30">
-        <v>14600</v>
+        <v>15023</v>
       </c>
       <c r="AC30">
-        <v>14200</v>
+        <v>14385</v>
       </c>
       <c r="AD30">
-        <v>8500</v>
+        <v>8619</v>
       </c>
       <c r="AE30">
         <v>12350</v>
       </c>
       <c r="AF30">
-        <v>5500</v>
+        <v>5748</v>
       </c>
       <c r="AG30">
-        <v>4133.5</v>
+        <v>4253</v>
       </c>
       <c r="AH30">
-        <v>6500</v>
+        <v>6585</v>
       </c>
       <c r="AI30">
-        <v>10600</v>
+        <v>10748</v>
       </c>
       <c r="AJ30">
         <v>13000</v>
@@ -7615,13 +7617,13 @@
         <v>-29.24</v>
       </c>
       <c r="BE30">
-        <v>58.75</v>
+        <v>51.91</v>
       </c>
       <c r="BF30">
-        <v>49.7</v>
+        <v>43.25</v>
       </c>
       <c r="BG30">
-        <v>136.36000000000001</v>
+        <v>126.17</v>
       </c>
       <c r="BI30">
         <v>29</v>
@@ -7639,16 +7641,16 @@
         <v>54</v>
       </c>
       <c r="BN30">
-        <v>8750</v>
+        <v>9144</v>
       </c>
       <c r="BO30">
-        <v>15000</v>
+        <v>15435</v>
       </c>
       <c r="BP30">
-        <v>13000</v>
+        <v>13169</v>
       </c>
       <c r="BQ30">
-        <v>10600</v>
+        <v>10748</v>
       </c>
       <c r="BR30">
         <v>16475</v>
@@ -7657,7 +7659,7 @@
         <v>9.34</v>
       </c>
       <c r="BT30">
-        <v>88.29</v>
+        <v>80.17</v>
       </c>
       <c r="BU30">
         <v>46.88</v>
@@ -7705,7 +7707,7 @@
         <v>49.54</v>
       </c>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -7755,46 +7757,46 @@
         <v>44</v>
       </c>
       <c r="V31">
-        <v>11000</v>
+        <v>11495</v>
       </c>
       <c r="W31">
-        <v>12000</v>
+        <v>12348</v>
       </c>
       <c r="X31">
-        <v>19750</v>
+        <v>20007</v>
       </c>
       <c r="Y31">
-        <v>15000</v>
+        <v>15210</v>
       </c>
       <c r="Z31">
         <v>18888</v>
       </c>
       <c r="AA31">
-        <v>11000</v>
+        <v>11495</v>
       </c>
       <c r="AB31">
-        <v>11550</v>
+        <v>11885</v>
       </c>
       <c r="AC31">
-        <v>19700</v>
+        <v>19956</v>
       </c>
       <c r="AD31">
-        <v>14000</v>
+        <v>14196</v>
       </c>
       <c r="AE31">
         <v>18888</v>
       </c>
       <c r="AF31">
-        <v>12000</v>
+        <v>12540</v>
       </c>
       <c r="AG31">
-        <v>13000</v>
+        <v>13377</v>
       </c>
       <c r="AH31">
-        <v>21628</v>
+        <v>21909</v>
       </c>
       <c r="AI31">
-        <v>18500</v>
+        <v>18759</v>
       </c>
       <c r="AJ31">
         <v>21250</v>
@@ -7842,13 +7844,13 @@
         <v>-39.299999999999997</v>
       </c>
       <c r="BE31">
-        <v>71.709999999999994</v>
+        <v>64.31</v>
       </c>
       <c r="BF31">
-        <v>71.709999999999994</v>
+        <v>64.31</v>
       </c>
       <c r="BG31">
-        <v>77.08</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="BI31">
         <v>54</v>
@@ -7866,16 +7868,16 @@
         <v>59</v>
       </c>
       <c r="BN31">
-        <v>11500</v>
+        <v>12018</v>
       </c>
       <c r="BO31">
-        <v>14261</v>
+        <v>14675</v>
       </c>
       <c r="BP31">
-        <v>21500</v>
+        <v>21780</v>
       </c>
       <c r="BQ31">
-        <v>17000</v>
+        <v>17238</v>
       </c>
       <c r="BR31">
         <v>20000</v>
@@ -7884,7 +7886,7 @@
         <v>-9.8800000000000008</v>
       </c>
       <c r="BT31">
-        <v>73.91</v>
+        <v>66.42</v>
       </c>
       <c r="BU31">
         <v>65.489999999999995</v>
@@ -7932,7 +7934,7 @@
         <v>43.07</v>
       </c>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -7997,61 +7999,61 @@
         <v>4</v>
       </c>
       <c r="V32">
-        <v>84950</v>
+        <v>88773</v>
       </c>
       <c r="W32">
-        <v>110857.5</v>
+        <v>114072</v>
       </c>
       <c r="X32">
-        <v>85000</v>
+        <v>86105</v>
       </c>
       <c r="Y32">
-        <v>87500</v>
+        <v>88725</v>
       </c>
       <c r="Z32">
         <v>90000</v>
       </c>
       <c r="AA32">
-        <v>112000</v>
+        <v>117040</v>
       </c>
       <c r="AB32">
-        <v>128000</v>
+        <v>131712</v>
       </c>
       <c r="AC32">
-        <v>100000</v>
+        <v>101300</v>
       </c>
       <c r="AD32">
-        <v>120000</v>
+        <v>121680</v>
       </c>
       <c r="AE32">
         <v>136000</v>
       </c>
       <c r="AF32">
-        <v>49000</v>
+        <v>51205</v>
       </c>
       <c r="AG32">
-        <v>50000</v>
+        <v>51450</v>
       </c>
       <c r="AH32">
-        <v>62500</v>
+        <v>63313</v>
       </c>
       <c r="AI32">
-        <v>52500</v>
+        <v>53235</v>
       </c>
       <c r="AJ32">
         <v>70000</v>
       </c>
       <c r="AK32">
-        <v>210000</v>
+        <v>219450</v>
       </c>
       <c r="AL32">
-        <v>161500</v>
+        <v>166184</v>
       </c>
       <c r="AM32">
-        <v>173500</v>
+        <v>175756</v>
       </c>
       <c r="AN32">
-        <v>244817.5</v>
+        <v>248245</v>
       </c>
       <c r="AO32">
         <v>152500</v>
@@ -8102,16 +8104,16 @@
         <v>-46.99</v>
       </c>
       <c r="BE32">
-        <v>5.94</v>
+        <v>1.38</v>
       </c>
       <c r="BF32">
-        <v>21.43</v>
+        <v>16.2</v>
       </c>
       <c r="BG32">
-        <v>42.86</v>
+        <v>36.71</v>
       </c>
       <c r="BH32">
-        <v>-27.38</v>
+        <v>-30.51</v>
       </c>
       <c r="BI32">
         <v>65</v>
@@ -8129,16 +8131,16 @@
         <v>97</v>
       </c>
       <c r="BN32">
-        <v>120000</v>
+        <v>125400</v>
       </c>
       <c r="BO32">
-        <v>125000</v>
+        <v>128625</v>
       </c>
       <c r="BP32">
-        <v>97000</v>
+        <v>98261</v>
       </c>
       <c r="BQ32">
-        <v>97500</v>
+        <v>98865</v>
       </c>
       <c r="BR32">
         <v>100000</v>
@@ -8147,7 +8149,7 @@
         <v>8.76</v>
       </c>
       <c r="BT32">
-        <v>-16.670000000000002</v>
+        <v>-20.260000000000002</v>
       </c>
       <c r="BU32">
         <v>67.44</v>
@@ -8210,7 +8212,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -8260,46 +8262,46 @@
         <v>98</v>
       </c>
       <c r="V33">
-        <v>9129</v>
+        <v>9540</v>
       </c>
       <c r="W33">
-        <v>12000</v>
+        <v>12348</v>
       </c>
       <c r="X33">
-        <v>14950</v>
+        <v>15144</v>
       </c>
       <c r="Y33">
-        <v>15000</v>
+        <v>15210</v>
       </c>
       <c r="Z33">
         <v>14950</v>
       </c>
       <c r="AA33">
-        <v>10000</v>
+        <v>10450</v>
       </c>
       <c r="AB33">
-        <v>11000</v>
+        <v>11319</v>
       </c>
       <c r="AC33">
-        <v>15000</v>
+        <v>15195</v>
       </c>
       <c r="AD33">
-        <v>15000</v>
+        <v>15210</v>
       </c>
       <c r="AE33">
         <v>14250</v>
       </c>
       <c r="AF33">
-        <v>6000</v>
+        <v>6270</v>
       </c>
       <c r="AG33">
-        <v>14500</v>
+        <v>14921</v>
       </c>
       <c r="AH33">
-        <v>14539</v>
+        <v>14728</v>
       </c>
       <c r="AI33">
-        <v>10000</v>
+        <v>10140</v>
       </c>
       <c r="AJ33">
         <v>17375</v>
@@ -8347,13 +8349,13 @@
         <v>-24.81</v>
       </c>
       <c r="BE33">
-        <v>63.76</v>
+        <v>56.71</v>
       </c>
       <c r="BF33">
-        <v>42.5</v>
+        <v>36.36</v>
       </c>
       <c r="BG33">
-        <v>189.58</v>
+        <v>177.11</v>
       </c>
       <c r="BI33">
         <v>69</v>
@@ -8371,16 +8373,16 @@
         <v>162</v>
       </c>
       <c r="BN33">
-        <v>11000</v>
+        <v>11495</v>
       </c>
       <c r="BO33">
-        <v>15355</v>
+        <v>15800</v>
       </c>
       <c r="BP33">
-        <v>22000</v>
+        <v>22286</v>
       </c>
       <c r="BQ33">
-        <v>21900</v>
+        <v>22207</v>
       </c>
       <c r="BR33">
         <v>18450</v>
@@ -8389,7 +8391,7 @@
         <v>21.84</v>
       </c>
       <c r="BT33">
-        <v>67.73</v>
+        <v>60.5</v>
       </c>
       <c r="BU33">
         <v>75</v>
@@ -8437,7 +8439,7 @@
         <v>38.21</v>
       </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -8502,61 +8504,61 @@
         <v>6</v>
       </c>
       <c r="V34">
-        <v>142950</v>
+        <v>149383</v>
       </c>
       <c r="W34">
-        <v>150000</v>
+        <v>154350</v>
       </c>
       <c r="X34">
-        <v>170000</v>
+        <v>172210</v>
       </c>
       <c r="Y34">
-        <v>150000</v>
+        <v>152100</v>
       </c>
       <c r="Z34">
         <v>142500</v>
       </c>
       <c r="AA34">
-        <v>400811</v>
+        <v>418847</v>
       </c>
       <c r="AB34">
-        <v>349500</v>
+        <v>359636</v>
       </c>
       <c r="AC34">
-        <v>23000</v>
+        <v>23299</v>
       </c>
       <c r="AD34">
-        <v>308000</v>
+        <v>312312</v>
       </c>
       <c r="AE34">
         <v>97500</v>
       </c>
       <c r="AF34">
-        <v>48000</v>
+        <v>50160</v>
       </c>
       <c r="AG34">
-        <v>125000</v>
+        <v>128625</v>
       </c>
       <c r="AH34">
-        <v>156750</v>
+        <v>158788</v>
       </c>
       <c r="AI34">
-        <v>82500</v>
+        <v>83655</v>
       </c>
       <c r="AJ34">
         <v>171000</v>
       </c>
       <c r="AK34">
-        <v>128200</v>
+        <v>133969</v>
       </c>
       <c r="AL34">
-        <v>217500</v>
+        <v>223808</v>
       </c>
       <c r="AM34">
-        <v>383750</v>
+        <v>388739</v>
       </c>
       <c r="AN34">
-        <v>147500</v>
+        <v>149565</v>
       </c>
       <c r="AO34">
         <v>168250</v>
@@ -8607,16 +8609,16 @@
         <v>-58.64</v>
       </c>
       <c r="BE34">
-        <v>-0.31</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="BF34">
-        <v>-75.67</v>
+        <v>-76.72</v>
       </c>
       <c r="BG34">
-        <v>256.25</v>
+        <v>240.91</v>
       </c>
       <c r="BH34">
-        <v>31.24</v>
+        <v>25.59</v>
       </c>
       <c r="BI34">
         <v>18</v>
@@ -8634,16 +8636,16 @@
         <v>24</v>
       </c>
       <c r="BN34">
-        <v>158000</v>
+        <v>165110</v>
       </c>
       <c r="BO34">
-        <v>192500</v>
+        <v>198083</v>
       </c>
       <c r="BP34">
-        <v>170000</v>
+        <v>172210</v>
       </c>
       <c r="BQ34">
-        <v>196000</v>
+        <v>198744</v>
       </c>
       <c r="BR34">
         <v>159750</v>
@@ -8652,7 +8654,7 @@
         <v>-8.0399999999999991</v>
       </c>
       <c r="BT34">
-        <v>1.1100000000000001</v>
+        <v>-3.25</v>
       </c>
       <c r="BU34">
         <v>40</v>
@@ -8715,7 +8717,7 @@
         <v>82.76</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -8765,46 +8767,46 @@
         <v>96</v>
       </c>
       <c r="V35">
-        <v>20250</v>
+        <v>21161</v>
       </c>
       <c r="W35">
-        <v>22950</v>
+        <v>23616</v>
       </c>
       <c r="X35">
-        <v>26905</v>
+        <v>27255</v>
       </c>
       <c r="Y35">
-        <v>27800</v>
+        <v>28189</v>
       </c>
       <c r="Z35">
         <v>35000</v>
       </c>
       <c r="AA35">
-        <v>20750</v>
+        <v>21684</v>
       </c>
       <c r="AB35">
-        <v>23000</v>
+        <v>23667</v>
       </c>
       <c r="AC35">
-        <v>24275</v>
+        <v>24591</v>
       </c>
       <c r="AD35">
-        <v>24850</v>
+        <v>25198</v>
       </c>
       <c r="AE35">
         <v>34000</v>
       </c>
       <c r="AF35">
-        <v>19500</v>
+        <v>20378</v>
       </c>
       <c r="AG35">
-        <v>20000</v>
+        <v>20580</v>
       </c>
       <c r="AH35">
-        <v>31500</v>
+        <v>31910</v>
       </c>
       <c r="AI35">
-        <v>36250</v>
+        <v>36758</v>
       </c>
       <c r="AJ35">
         <v>35000</v>
@@ -8852,13 +8854,13 @@
         <v>-32.770000000000003</v>
       </c>
       <c r="BE35">
-        <v>72.84</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="BF35">
-        <v>63.86</v>
+        <v>56.8</v>
       </c>
       <c r="BG35">
-        <v>79.489999999999995</v>
+        <v>71.75</v>
       </c>
       <c r="BI35">
         <v>72</v>
@@ -8876,16 +8878,16 @@
         <v>145</v>
       </c>
       <c r="BN35">
-        <v>25500</v>
+        <v>26648</v>
       </c>
       <c r="BO35">
-        <v>30000</v>
+        <v>30870</v>
       </c>
       <c r="BP35">
-        <v>32000</v>
+        <v>32416</v>
       </c>
       <c r="BQ35">
-        <v>37600</v>
+        <v>38126</v>
       </c>
       <c r="BR35">
         <v>38000</v>
@@ -8894,7 +8896,7 @@
         <v>24.99</v>
       </c>
       <c r="BT35">
-        <v>49.02</v>
+        <v>42.6</v>
       </c>
       <c r="BU35">
         <v>67.430000000000007</v>
@@ -8942,7 +8944,7 @@
         <v>51.42</v>
       </c>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -9007,61 +9009,61 @@
         <v>175</v>
       </c>
       <c r="V36">
-        <v>22000</v>
+        <v>22990</v>
       </c>
       <c r="W36">
-        <v>24000</v>
+        <v>24696</v>
       </c>
       <c r="X36">
-        <v>26000</v>
+        <v>26338</v>
       </c>
       <c r="Y36">
-        <v>28375</v>
+        <v>28772</v>
       </c>
       <c r="Z36">
         <v>30000</v>
       </c>
       <c r="AA36">
-        <v>24000</v>
+        <v>25080</v>
       </c>
       <c r="AB36">
-        <v>25575</v>
+        <v>26317</v>
       </c>
       <c r="AC36">
-        <v>27050</v>
+        <v>27402</v>
       </c>
       <c r="AD36">
-        <v>29000</v>
+        <v>29406</v>
       </c>
       <c r="AE36">
         <v>32000</v>
       </c>
       <c r="AF36">
-        <v>15000</v>
+        <v>15675</v>
       </c>
       <c r="AG36">
-        <v>16100</v>
+        <v>16567</v>
       </c>
       <c r="AH36">
-        <v>20000</v>
+        <v>20260</v>
       </c>
       <c r="AI36">
-        <v>22000</v>
+        <v>22308</v>
       </c>
       <c r="AJ36">
         <v>22000</v>
       </c>
       <c r="AK36">
-        <v>164000</v>
+        <v>171380</v>
       </c>
       <c r="AL36">
-        <v>161500</v>
+        <v>166184</v>
       </c>
       <c r="AM36">
-        <v>160000</v>
+        <v>162080</v>
       </c>
       <c r="AN36">
-        <v>149000</v>
+        <v>151086</v>
       </c>
       <c r="AO36">
         <v>152000</v>
@@ -9112,16 +9114,16 @@
         <v>-25.12</v>
       </c>
       <c r="BE36">
-        <v>36.36</v>
+        <v>30.49</v>
       </c>
       <c r="BF36">
-        <v>33.33</v>
+        <v>27.59</v>
       </c>
       <c r="BG36">
-        <v>46.67</v>
+        <v>40.35</v>
       </c>
       <c r="BH36">
-        <v>-7.32</v>
+        <v>-11.31</v>
       </c>
       <c r="BI36">
         <v>1819</v>
@@ -9139,16 +9141,16 @@
         <v>3121</v>
       </c>
       <c r="BN36">
-        <v>34925</v>
+        <v>36497</v>
       </c>
       <c r="BO36">
-        <v>33800</v>
+        <v>34780</v>
       </c>
       <c r="BP36">
-        <v>35100</v>
+        <v>35556</v>
       </c>
       <c r="BQ36">
-        <v>40000</v>
+        <v>40560</v>
       </c>
       <c r="BR36">
         <v>40800</v>
@@ -9157,7 +9159,7 @@
         <v>10.01</v>
       </c>
       <c r="BT36">
-        <v>16.82</v>
+        <v>11.79</v>
       </c>
       <c r="BU36">
         <v>71.92</v>
@@ -9220,7 +9222,7 @@
         <v>52.62</v>
       </c>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -9285,61 +9287,61 @@
         <v>1920</v>
       </c>
       <c r="V37">
-        <v>75000</v>
+        <v>78375</v>
       </c>
       <c r="W37">
-        <v>80000</v>
+        <v>82320</v>
       </c>
       <c r="X37">
-        <v>84900</v>
+        <v>86004</v>
       </c>
       <c r="Y37">
-        <v>85600</v>
+        <v>86798</v>
       </c>
       <c r="Z37">
         <v>95000</v>
       </c>
       <c r="AA37">
-        <v>85000</v>
+        <v>88825</v>
       </c>
       <c r="AB37">
-        <v>92000</v>
+        <v>94668</v>
       </c>
       <c r="AC37">
-        <v>94850</v>
+        <v>96083</v>
       </c>
       <c r="AD37">
-        <v>97000</v>
+        <v>98358</v>
       </c>
       <c r="AE37">
         <v>108000</v>
       </c>
       <c r="AF37">
-        <v>23000</v>
+        <v>24035</v>
       </c>
       <c r="AG37">
-        <v>23299.5</v>
+        <v>23975</v>
       </c>
       <c r="AH37">
-        <v>29900</v>
+        <v>30289</v>
       </c>
       <c r="AI37">
-        <v>30068</v>
+        <v>30489</v>
       </c>
       <c r="AJ37">
         <v>33000</v>
       </c>
       <c r="AK37">
-        <v>68000</v>
+        <v>71060</v>
       </c>
       <c r="AL37">
-        <v>72000</v>
+        <v>74088</v>
       </c>
       <c r="AM37">
-        <v>75000</v>
+        <v>75975</v>
       </c>
       <c r="AN37">
-        <v>78000</v>
+        <v>79092</v>
       </c>
       <c r="AO37">
         <v>80965</v>
@@ -9390,16 +9392,16 @@
         <v>-23.97</v>
       </c>
       <c r="BE37">
-        <v>26.67</v>
+        <v>21.21</v>
       </c>
       <c r="BF37">
-        <v>27.06</v>
+        <v>21.59</v>
       </c>
       <c r="BG37">
-        <v>43.48</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="BH37">
-        <v>19.07</v>
+        <v>13.94</v>
       </c>
       <c r="BI37">
         <v>9505</v>
@@ -9417,16 +9419,16 @@
         <v>15369</v>
       </c>
       <c r="BN37">
-        <v>105000</v>
+        <v>109725</v>
       </c>
       <c r="BO37">
-        <v>110000</v>
+        <v>113190</v>
       </c>
       <c r="BP37">
-        <v>110000</v>
+        <v>111430</v>
       </c>
       <c r="BQ37">
-        <v>115000</v>
+        <v>116610</v>
       </c>
       <c r="BR37">
         <v>120000</v>
@@ -9435,7 +9437,7 @@
         <v>6.4</v>
       </c>
       <c r="BT37">
-        <v>14.29</v>
+        <v>9.36</v>
       </c>
       <c r="BU37">
         <v>81.78</v>
@@ -9499,10 +9501,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>